--- a/weekly/待下载文献表.xlsx
+++ b/weekly/待下载文献表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>待下载文献</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -166,12 +166,89 @@
   <si>
     <t>Hierarchical Depthwise Graph Convolutional Neural Network for 3D Semantic Segmentation of Point Clouds</t>
   </si>
+  <si>
+    <t>新的归一化方法 AN</t>
+  </si>
+  <si>
+    <t>Attentive Normalization</t>
+  </si>
+  <si>
+    <t>GCNv2-SLAM：用CNN提取特征点取代ORB</t>
+  </si>
+  <si>
+    <t>V1：Geometric Correspondence Network for Camera Motion Estimation</t>
+  </si>
+  <si>
+    <t>GCNv2: Efficient Correspondence Prediction for Real-Time SLAM</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/VioGOG3t2ohw82KCrOVHsw</t>
+  </si>
+  <si>
+    <t>OpenSeqSLAM2.0：一个用于在不断变化的条件下进行视觉位置识别的开源工具箱</t>
+  </si>
+  <si>
+    <t>OpenSeqSLAM2.0: An Open Source Toolbox for Visual Place Recognition Under Changing Conditions</t>
+  </si>
+  <si>
+    <t>SLAM++:面向对象的同时定位与建图系统：https://mp.weixin.qq.com/s/xDglicIzU03lV68zRBQHiA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLAM++: Simultaneous Localisation and Mapping at the Level of Objects</t>
+  </si>
+  <si>
+    <t>一些知名实验室近三年与移动机器人有关的论文挖坑：https://mp.weixin.qq.com/s/eYRgq20P5aa0TiIT1zgmtQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual SLAM: 为什么要用BA（ICRA）：https://mp.weixin.qq.com/s/f718Mz6r_0ayB-UauJCVkQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual SLAM: Why Bundle Adjust?</t>
+  </si>
+  <si>
+    <t>三维感知数据分类的深度学习技术综述</t>
+  </si>
+  <si>
+    <t>A review on deep learning techniques for 3D sensed data classification</t>
+  </si>
+  <si>
+    <t>ICRA2019 SLAM Paperlist：https://mp.weixin.qq.com/s/g_8WAOTVDj4F4UyZyHMw4Q；https://mp.weixin.qq.com/s/q_y33mOoaV9YO0PjXuHqMg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D语义分割# VolMap：激光雷达全景的实时语义分割模型</t>
+  </si>
+  <si>
+    <t>VolMap: A Real-time Model for Semantic Segmentation of a LiDAR surrounding view</t>
+  </si>
+  <si>
+    <t>使用3D几何约束的单目视觉里程计的自我监督深度学习</t>
+  </si>
+  <si>
+    <t>DeepVIO: Self-supervised Deep Learning of Monocular Visual Inertial Odometry using 3D Geometric Constraints</t>
+  </si>
+  <si>
+    <t>利用堆叠GAN进行无监督深度视觉测距和深度估计</t>
+  </si>
+  <si>
+    <t>SGANVO: Unsupervised Deep Visual Odometry and Depth Estimation with Stacked Generative Adversarial Networks</t>
+  </si>
+  <si>
+    <t>CubeSLAM：单目3D目标SLAM算法，已开源！https://mp.weixin.qq.com/s/TTIJz41DJQaUGCSOuA176w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CubeSLAM: Monocular 3D Object SLAM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +371,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +513,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +796,7 @@
   <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -836,40 +922,60 @@
       <c r="A11" s="29">
         <v>11</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="22.5">
       <c r="A12" s="29">
         <v>12</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="22.5">
       <c r="A13" s="29">
         <v>13</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="22.5">
       <c r="A14" s="29">
         <v>14</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="29">
         <v>15</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="22.5">
@@ -877,7 +983,9 @@
         <v>16</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="C16" s="29" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="22.5">
@@ -885,55 +993,81 @@
         <v>17</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="29">
         <v>18</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="33.75" customHeight="1">
       <c r="A19" s="29">
         <v>19</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5">
+    <row r="20" spans="1:4" ht="27">
       <c r="A20" s="29">
         <v>20</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5">
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="29">
         <v>21</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="29">
         <v>22</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="29">
         <v>23</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="22.5">

--- a/weekly/待下载文献表.xlsx
+++ b/weekly/待下载文献表.xlsx
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
-  <si>
-    <t>待下载文献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>序号</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -195,60 +191,83 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>一些知名实验室近三年与移动机器人有关的论文挖坑：https://mp.weixin.qq.com/s/eYRgq20P5aa0TiIT1zgmtQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual SLAM: 为什么要用BA（ICRA）：https://mp.weixin.qq.com/s/f718Mz6r_0ayB-UauJCVkQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三维感知数据分类的深度学习技术综述</t>
+  </si>
+  <si>
+    <t>A review on deep learning techniques for 3D sensed data classification</t>
+  </si>
+  <si>
+    <t>ICRA2019 SLAM Paperlist：https://mp.weixin.qq.com/s/g_8WAOTVDj4F4UyZyHMw4Q；https://mp.weixin.qq.com/s/q_y33mOoaV9YO0PjXuHqMg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D语义分割# VolMap：激光雷达全景的实时语义分割模型</t>
+  </si>
+  <si>
+    <t>VolMap: A Real-time Model for Semantic Segmentation of a LiDAR surrounding view</t>
+  </si>
+  <si>
+    <t>使用3D几何约束的单目视觉里程计的自我监督深度学习</t>
+  </si>
+  <si>
+    <t>DeepVIO: Self-supervised Deep Learning of Monocular Visual Inertial Odometry using 3D Geometric Constraints</t>
+  </si>
+  <si>
+    <t>利用堆叠GAN进行无监督深度视觉测距和深度估计</t>
+  </si>
+  <si>
+    <t>SGANVO: Unsupervised Deep Visual Odometry and Depth Estimation with Stacked Generative Adversarial Networks</t>
+  </si>
+  <si>
+    <t>CubeSLAM：单目3D目标SLAM算法，已开源！https://mp.weixin.qq.com/s/TTIJz41DJQaUGCSOuA176w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CubeSLAM: Monocular 3D Object SLAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuMa++：基于激光雷达的语义SLAM </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>待下载文献https://mp.weixin.qq.com/s?__biz=MzI5MTM1MTQwMw==&amp;mid=2247509526&amp;idx=1&amp;sn=7abb855ac243095ab624f26d61f5862e&amp;chksm=ec131812db64910414f23a3a88d02a87084475077f7ac34cb24483625e66bfd72f982264483f&amp;mpshare=1&amp;scene=23&amp;srcid=&amp;sharer_sharetime=1573773913374&amp;sharer_shareid=c768e06004d7c9561ca841d67789d621#rd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuMa++: Efficient LiDAR-based Semantic SLAM</t>
+  </si>
+  <si>
     <t>SLAM++: Simultaneous Localisation and Mapping at the Level of Objects</t>
-  </si>
-  <si>
-    <t>一些知名实验室近三年与移动机器人有关的论文挖坑：https://mp.weixin.qq.com/s/eYRgq20P5aa0TiIT1zgmtQ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visual SLAM: 为什么要用BA（ICRA）：https://mp.weixin.qq.com/s/f718Mz6r_0ayB-UauJCVkQ</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Visual SLAM: Why Bundle Adjust?</t>
-  </si>
-  <si>
-    <t>三维感知数据分类的深度学习技术综述</t>
-  </si>
-  <si>
-    <t>A review on deep learning techniques for 3D sensed data classification</t>
-  </si>
-  <si>
-    <t>ICRA2019 SLAM Paperlist：https://mp.weixin.qq.com/s/g_8WAOTVDj4F4UyZyHMw4Q；https://mp.weixin.qq.com/s/q_y33mOoaV9YO0PjXuHqMg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>D语义分割# VolMap：激光雷达全景的实时语义分割模型</t>
-  </si>
-  <si>
-    <t>VolMap: A Real-time Model for Semantic Segmentation of a LiDAR surrounding view</t>
-  </si>
-  <si>
-    <t>使用3D几何约束的单目视觉里程计的自我监督深度学习</t>
-  </si>
-  <si>
-    <t>DeepVIO: Self-supervised Deep Learning of Monocular Visual Inertial Odometry using 3D Geometric Constraints</t>
-  </si>
-  <si>
-    <t>利用堆叠GAN进行无监督深度视觉测距和深度估计</t>
-  </si>
-  <si>
-    <t>SGANVO: Unsupervised Deep Visual Odometry and Depth Estimation with Stacked Generative Adversarial Networks</t>
-  </si>
-  <si>
-    <t>CubeSLAM：单目3D目标SLAM算法，已开源！https://mp.weixin.qq.com/s/TTIJz41DJQaUGCSOuA176w</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CubeSLAM: Monocular 3D Object SLAM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN-SLAM - Generative Modeling for Monocular Simultaneous Localization and Mapping</t>
+  </si>
+  <si>
+    <t>GEN-SLAM - 单目同时定位和建图的生成模型</t>
+  </si>
+  <si>
+    <t>视觉+IMU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +396,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +542,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,29 +824,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="162.25" customWidth="1"/>
     <col min="4" max="4" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
@@ -826,27 +856,27 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5">
       <c r="B3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="22.5">
       <c r="B4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="30"/>
     </row>
@@ -855,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28"/>
     </row>
@@ -867,10 +897,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -879,10 +909,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="29"/>
     </row>
@@ -891,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -901,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -911,10 +941,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="29"/>
     </row>
@@ -923,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="29"/>
     </row>
@@ -935,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="29"/>
     </row>
@@ -947,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="29"/>
     </row>
@@ -959,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="29"/>
     </row>
@@ -971,10 +1001,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D15" s="29"/>
     </row>
@@ -984,7 +1014,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="29"/>
     </row>
@@ -994,7 +1024,7 @@
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="29"/>
     </row>
@@ -1003,10 +1033,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D18" s="29"/>
     </row>
@@ -1015,10 +1045,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
     </row>
@@ -1027,10 +1057,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="29"/>
     </row>
@@ -1039,10 +1069,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D21" s="29"/>
     </row>
@@ -1051,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="29"/>
     </row>
@@ -1063,34 +1093,44 @@
         <v>23</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5">
+    <row r="24" spans="1:4" ht="24">
       <c r="A24" s="29">
         <v>24</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="22.5">
       <c r="A25" s="29">
         <v>25</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="29">
         <v>26</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
@@ -3113,16 +3153,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
@@ -3130,13 +3170,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5">
@@ -3144,10 +3184,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -3156,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.75">
@@ -3170,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3184,13 +3224,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/weekly/待下载文献表.xlsx
+++ b/weekly/待下载文献表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\postgraduate\summary\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CE413-AFEB-4083-B383-E4563AF7CF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27825" windowHeight="13005"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待下载" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>序号</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -262,11 +263,53 @@
     <t>视觉+IMU</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>亚像素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>using saddle points for subpixel feature detection in camera calibration targets</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a new sub-pixel detector for x-corners in camera calibration targets</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正：求解焦距和偏移（内参数矩阵）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a flexible new technique for camera calibration</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正：求解畸变参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-range camera calibration</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS-SLAM A Semantic Visual SLAM towards dynamic environments (2018)</t>
+  </si>
+  <si>
+    <t>Improving RGB-D SLAM in dynamic environments: A motion removal approach(2017RA System)</t>
+  </si>
+  <si>
+    <t>动态场景剔除</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -821,11 +864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1138,48 +1181,74 @@
       <c r="A27" s="29">
         <v>27</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="29">
         <v>28</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="22.5">
       <c r="A29" s="29">
         <v>29</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="22.5">
       <c r="A30" s="29">
         <v>30</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" ht="22.5">
       <c r="A31" s="29">
         <v>31</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="22.5">
       <c r="A32" s="29">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="22.5">
@@ -3138,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/weekly/待下载文献表.xlsx
+++ b/weekly/待下载文献表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CE413-AFEB-4083-B383-E4563AF7CF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C5700-D5DC-44F4-AEE4-373E37CB14EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,17 +292,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>动态场景剔除</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>DS-SLAM A Semantic Visual SLAM towards dynamic environments (2018)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Improving RGB-D SLAM in dynamic environments: A motion removal approach(2017RA System)</t>
-  </si>
-  <si>
-    <t>动态场景剔除</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已下</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -867,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1212,7 +1214,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5">
@@ -1232,10 +1234,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="29"/>
     </row>
@@ -1244,10 +1246,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" s="29"/>
     </row>

--- a/weekly/待下载文献表.xlsx
+++ b/weekly/待下载文献表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5C5700-D5DC-44F4-AEE4-373E37CB14EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A16015-9972-4782-9B29-B9BFF41E6A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>序号</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -306,6 +306,12 @@
   <si>
     <t>Improving RGB-D SLAM in dynamic environments: A motion removal approach(2017RA System)</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration of fisheye camera systems and the reduction of chromatic aberration</t>
+  </si>
+  <si>
+    <t>improved wide-angle, fisheye and omnidirectional camera calibration</t>
   </si>
 </sst>
 </file>
@@ -870,7 +876,7 @@
   <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1227,7 +1233,9 @@
       <c r="C30" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="22.5">
       <c r="A31" s="29">
@@ -1239,7 +1247,9 @@
       <c r="C31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="22.5">
       <c r="A32" s="29">
@@ -1251,14 +1261,18 @@
       <c r="C32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="22.5">
       <c r="A33" s="29">
         <v>33</v>
       </c>
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="22.5">
@@ -1266,7 +1280,9 @@
         <v>34</v>
       </c>
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" ht="22.5">
